--- a/Bevill_State_Community_College_Organizations.xlsx
+++ b/Bevill_State_Community_College_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,40 +433,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="46" customWidth="1" min="2" max="2"/>
+    <col width="46" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Organization Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Organization Name</t>
+          <t>Categories</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Organization Link</t>
+          <t>Org URL</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Logo Link</t>
+          <t>Image URL</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -481,54 +480,49 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Linkedin Link</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Instagram Link</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Facebook Link</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Twitter Link</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Youtube Link</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tiktok Link</t>
+          <t>Twitter</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>At a Glance</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>President’s Welcome</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/about/presidents-welcome</t>
+          <t>https://www.bscc.edu/about/at-a-glance</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -540,22 +534,21 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Financial Data</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>At a Glance</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/about/at-a-glance</t>
+          <t>https://www.bscc.edu/about/financial-data</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -567,22 +560,21 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Hours of Operation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mission Vision Values</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/about/mission-vision-values</t>
+          <t>https://www.bscc.edu/about/hours-of-operation</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -594,22 +586,21 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Employment Opportunities</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Employee Directory</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/about/employee-directory</t>
+          <t>https://www.bscc.edu/about/employment-opportunities</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -621,22 +612,21 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Open Records Request</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Financial Data</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/about/financial-data</t>
+          <t>https://www.bscc.edu/about/open-records-request</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -648,22 +638,21 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Economic Impact</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Consumer Student Information</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/about/consumer-student-information</t>
+          <t>https://www.bscc.edu/about/economic-impact</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -675,22 +664,21 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Apply Online</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hours of Operation</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/about/hours-of-operation</t>
+          <t>https://www.bscc.edu/students/apply-online</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -702,22 +690,21 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Current Students</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Employment Opportunities</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/about/employment-opportunities</t>
+          <t>https://www.bscc.edu/students/current-students</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -729,22 +716,21 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Future Students</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Event Calendar</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/about/event-calendar</t>
+          <t>https://www.bscc.edu/students/future-students</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -756,22 +742,21 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Transfer Students</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Open Records Request</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/about/open-records-request</t>
+          <t>https://www.bscc.edu/students/transfer-students</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -783,22 +768,21 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Payment Plan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Economic Impact</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/about/economic-impact</t>
+          <t>https://www.bscc.edu/students/payment-plan</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -810,22 +794,21 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Scholarship Applications</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Apply Online</t>
+          <t>Academic</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/apply-online</t>
+          <t>https://www.bscc.edu/students/scholarship-applications</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -837,22 +820,21 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Transcripts and Records</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Current Students</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students</t>
+          <t>https://www.bscc.edu/students/transcripts-and-records</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -864,22 +846,21 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>International Students</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Future Students</t>
+          <t>Cultural</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/future-students</t>
+          <t>https://www.bscc.edu/students/international-students</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -891,22 +872,21 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Student Resources</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transfer Students</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/transfer-students</t>
+          <t>https://www.bscc.edu/students/student-resources</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -918,22 +898,21 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Title IX</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Financial Aid</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/financial-aid</t>
+          <t>https://www.bscc.edu/students/title-ix</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -945,22 +924,21 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Workforce Solutions</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Payment Plan</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/payment-plan</t>
+          <t>https://www.bscc.edu/programs/workforce-solutions</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -972,22 +950,21 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Academic</t>
+          <t>Health Sciences</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Scholarship Applications</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/scholarship-applications</t>
+          <t>https://www.bscc.edu/programs/health-sciences</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -999,22 +976,21 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Career Tech</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transcripts and Records</t>
+          <t>Professional</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/transcripts-and-records</t>
+          <t>https://www.bscc.edu/programs/career-tech</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1026,22 +1002,21 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cultural</t>
+          <t>Transfer Advisement</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>International Students</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/international-students</t>
+          <t>https://www.bscc.edu/programs/academic#transfer</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1053,22 +1028,21 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Alabama Transfers Guides</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Student Resources</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/student-resources</t>
+          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1080,22 +1054,21 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Advanced Engineering Design Technology (EDT)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Title IX</t>
+          <t>Professional</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/title-ix</t>
+          <t>https://www.bscc.edu/programs/career-tech/advanced-engineering-design-technology-edt</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1107,22 +1080,21 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Academic</t>
+          <t>Air Conditioning &amp; Refrigeration</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>President's and Dean's Lists</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/presidents-and-deans-lists</t>
+          <t>https://www.bscc.edu/programs/career-tech/air-conditioning-and-refrigeration</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1134,22 +1106,21 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Apprenticeship Program</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Workforce Solutions</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/workforce-solutions</t>
+          <t>https://www.bscc.edu/programs/career-tech/apprenticeship-program</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1161,22 +1132,21 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Automated Manufacturing Technology</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Health Sciences</t>
+          <t>Professional</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/health-sciences</t>
+          <t>https://www.bscc.edu/programs/career-tech/automated-manufacturing-technology</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1188,22 +1158,21 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Professional</t>
+          <t>Child Development</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Career Tech</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech</t>
+          <t>https://www.bscc.edu/programs/career-tech/child-development</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1215,22 +1184,21 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Computer Science</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transfer Advisement</t>
+          <t>Special Interest</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/academic#transfer</t>
+          <t>https://www.bscc.edu/programs/career-tech/computer-science</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1242,22 +1210,21 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Electrical Systems Technology</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alabama Transfers Guides</t>
+          <t>Professional</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
+          <t>https://www.bscc.edu/programs/career-tech/electrical-systems-technology</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1269,22 +1236,21 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Industrial Electrical Technology (IST)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>Professional</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Advanced Engineering Design Technology (EDT)</t>
-        </is>
-      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/advanced-engineering-design-technology-edt</t>
+          <t>https://www.bscc.edu/programs/career-tech/industrial-electrical-technology</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1296,22 +1262,21 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Industrial Electronics Technology</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Air Conditioning &amp; Refrigeration</t>
+          <t>Professional</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/air-conditioning-and-refrigeration</t>
+          <t>https://www.bscc.edu/programs/career-tech/electrical-systems-technology</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1323,22 +1288,21 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Machine Tool Technology</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Apprenticeship Program</t>
+          <t>Professional</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/apprenticeship-program</t>
+          <t>https://www.bscc.edu/programs/career-tech/machine-tool-technology</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1350,22 +1314,21 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Professional</t>
+          <t>Management &amp; Entrepreneurship</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Automated Manufacturing Technology</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/automated-manufacturing-technology</t>
+          <t>https://www.bscc.edu/programs/career-tech/management-and-entrepreneurship</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1377,22 +1340,21 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Mercedes Tech Program</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Child Development</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/child-development</t>
+          <t>https://www.bscc.edu/programs/career-tech/mercedes-tech-program</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1404,22 +1366,21 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Special Interest</t>
+          <t>Salon &amp; Spa Management</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Computer Science</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/computer-science</t>
+          <t>https://www.bscc.edu/programs/career-tech/salon-spa-management</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1431,22 +1392,21 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Professional</t>
+          <t>Utility Vegetation Management</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Electrical Systems Technology</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/electrical-systems-technology</t>
+          <t>https://www.bscc.edu/programs/career-tech/utility-vegetation-management</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1458,22 +1418,21 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Vehicle Technology &amp; Repair</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>Professional</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Industrial Electrical Technology (IST)</t>
-        </is>
-      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/industrial-electrical-technology</t>
+          <t>https://www.bscc.edu/programs/career-tech/vehicle-technology-repair</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1485,22 +1444,21 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Welding Technology</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Professional</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Industrial Electronics Technology</t>
-        </is>
-      </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/electrical-systems-technology</t>
+          <t>https://www.bscc.edu/programs/career-tech/welding-technology</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1512,22 +1470,21 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Surgical Technology</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>Professional</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Machine Tool Technology</t>
-        </is>
-      </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/machine-tool-technology</t>
+          <t>https://www.bscc.edu/programs/health-sciences/surgical-technology</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1539,22 +1496,21 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Phlebotomy (10-Week Course)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Management &amp; Entrepreneurship</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/management-and-entrepreneurship</t>
+          <t>https://www.bscc.edu/programs/health-sciences/phlebotomy-10-week-course</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1566,22 +1522,21 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Medical Assisting Technology</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mercedes Tech Program</t>
+          <t>Professional</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/mercedes-tech-program</t>
+          <t>https://www.bscc.edu/programs/health-sciences/medical-assisting-technology</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1593,22 +1548,21 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Professional</t>
+          <t>Dental Assistant</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Office Administration &amp; Technology (OAT)</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/office-administration-and-technology-oat</t>
+          <t>https://www.bscc.edu/programs/health-sciences/dental-assistant</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1620,22 +1574,21 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>BEST Robotics</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Salon &amp; Spa Management</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/salon-spa-management</t>
+          <t>https://www.bscc.edu/programs/workforce-solutions/best-robotics</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1647,22 +1600,21 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Manufacturing Skill Standards Council (MSSC)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Truck Driver Training</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/truck-driver-training</t>
+          <t>http://www.bscc.edu/programs/workforce-solutions/mssc</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1674,22 +1626,21 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>PeriOp 101</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Utility Vegetation Management</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/utility-vegetation-management</t>
+          <t>https://www.bscc.edu/programs/workforce-solutions/periop-101</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1701,22 +1652,21 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Professional</t>
+          <t>Second Opportunity System (SOS)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Vehicle Technology &amp; Repair</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/vehicle-technology-repair</t>
+          <t>https://www.bscc.edu/programs/workforce-solutions/second-opportunity-system</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -1728,22 +1678,21 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Professional</t>
+          <t>Final Exam Schedule</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Welding Technology</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/career-tech/welding-technology</t>
+          <t>https://www.bscc.edu/students/current-students/final-exam-schedule</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -1755,22 +1704,21 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Professional</t>
+          <t>Course Schedule</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Surgical Technology</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/health-sciences/surgical-technology</t>
+          <t>https://www.bscc.edu/students/current-students/course-schedule</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -1782,22 +1730,21 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Canvas Assistance</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Phlebotomy (10-Week Course)</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/health-sciences/phlebotomy-10-week-course</t>
+          <t>https://www.bscc.edu/students/current-students/canvas-assistance</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -1809,22 +1756,21 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Professional</t>
+          <t>Student ADA Accommodations</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Emergency Medical Services</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/health-sciences/emergency-medical-services</t>
+          <t>https://www.bscc.edu/students/current-students/student-ada-accommodations</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -1836,22 +1782,21 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Professional</t>
+          <t>Course Withdrawal Form</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Medical Assisting Technology</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/health-sciences/medical-assisting-technology</t>
+          <t>https://www.bscc.edu/students/current-students/course-withdrawal-form</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -1863,22 +1808,21 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Registration Assistance</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dental Assistant</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/health-sciences/dental-assistant</t>
+          <t>https://www.bscc.edu/students/current-students/registration-assistance</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -1890,22 +1834,21 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Forms, Publications, Applications</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BEST Robotics</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/workforce-solutions/best-robotics</t>
+          <t>https://www.bscc.edu/students/current-students/forms-publications-applications</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -1917,22 +1860,21 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Program of Study Change Form</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Manufacturing Skill Standards Council (MSSC)</t>
+          <t>Academic</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>http://www.bscc.edu/programs/workforce-solutions/mssc</t>
+          <t>https://www.bscc.edu/students/current-students/program-of-study-change-form</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -1944,22 +1886,21 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Bear Alert</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PeriOp 101</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/workforce-solutions/periop-101</t>
+          <t>https://www.bscc.edu/students/current-students/bear-alert</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -1971,22 +1912,21 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Free Speech Request Form</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Second Opportunity System (SOS)</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/programs/workforce-solutions/second-opportunity-system</t>
+          <t>https://www.bscc.edu/students/current-students/free-speech-request-form</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -1998,22 +1938,21 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Student Housing</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Final Exam Schedule</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students/final-exam-schedule</t>
+          <t>https://www.bscc.edu/students/current-students/student-housing</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -2025,22 +1964,21 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Student Organizations</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Course Schedule</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students/course-schedule</t>
+          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -2052,22 +1990,21 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>MyBSCC Assistance</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Canvas Assistance</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students/canvas-assistance</t>
+          <t>https://www.bscc.edu/students/current-students/mybscc-assistance</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -2079,22 +2016,21 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>ACCS Employment Opportunities</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Student ADA Accommodations</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students/student-ada-accommodations</t>
+          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -2106,22 +2042,21 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>ACCS Formal Complaints (PDF)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Course Withdrawal Form</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students/course-withdrawal-form</t>
+          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -2133,22 +2068,21 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>ACCS Student Complaint Process</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Registration Assistance</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students/registration-assistance</t>
+          <t>http://www.bscc.edu/accs-student-complaint-process</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -2160,22 +2094,21 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Alabama Career Center (AlabamaWorks)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Forms, Publications, Applications</t>
+          <t>Professional</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students/forms-publications-applications</t>
+          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -2187,22 +2120,21 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Bear Growl</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Register for Classes</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students/register-for-classes</t>
+          <t>https://www.bscc.edu/students/student-resources/technology</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -2214,22 +2146,21 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Canvas|Canvas Assistance</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Student Handbook</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students/student-handbook</t>
+          <t>https://www.bscc.edu/students/current-students/canvas-assistance</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -2241,22 +2172,21 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Academic</t>
+          <t>Employee Webmail</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Program of Study Change Form</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students/program-of-study-change-form</t>
+          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -2268,22 +2198,21 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Forms &amp; Publications</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Bear Alert</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students/bear-alert</t>
+          <t>https://www.bscc.edu/students/current-students/forms-publications-applications</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2295,22 +2224,21 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Live Chat</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Free Speech Request Form</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students/free-speech-request-form</t>
+          <t>https://www.bscc.edu/live-chat</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2322,22 +2250,21 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Net Price Calculator</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Student Housing</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students/student-housing</t>
+          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2349,22 +2276,21 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Operating Financial Data</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Student Organizations</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
+          <t>https://www.bscc.edu/about/at-a-glance/financial-data</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -2376,439 +2302,6 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>MyBSCC Assistance</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>https://www.bscc.edu/students/current-students/mybscc-assistance</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ACCS Employment Opportunities</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ACCS Formal Complaints (PDF)</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ACCS Student Complaint Process</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>http://www.bscc.edu/accs-student-complaint-process</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Professional</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Alabama Career Center (AlabamaWorks)</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Applicant Dashboard</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Bear Growl</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>https://www.bscc.edu/students/student-resources/technology</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Bevill State Bookstore</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Canvas|Canvas Assistance</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>https://www.bscc.edu/students/current-students/canvas-assistance</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Counselor Dashboard</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Service</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Disability Services</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>https://www.bscc.edu/students/current-students/student-ada-accommodations</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Employee Webmail</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Forms &amp; Publications</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>https://www.bscc.edu/students/current-students/forms-publications-applications</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Live Chat</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>https://www.bscc.edu/live-chat</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Net Price Calculator</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>https://www.bscc.edu/students/current-students/student-organizations</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Operating Financial Data</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>https://www.bscc.edu/about/at-a-glance/financial-data</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bevill_State_Community_College_Organizations.xlsx
+++ b/Bevill_State_Community_College_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,39 +433,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="46" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="46" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Organization Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Categories</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Org URL</t>
+          <t>Organization Link</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Image URL</t>
+          <t>Logo Link</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -480,44 +481,49 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Phone Number</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Linkedin Link</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Instagram Link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook Link</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter Link</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Youtube Link</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tiktok Link</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>At a Glance</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -534,16 +540,17 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Financial Data</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -560,16 +567,17 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Hours of Operation</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -586,16 +594,17 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Employment Opportunities</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,16 +621,17 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Open Records Request</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,16 +648,17 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Economic Impact</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -664,16 +675,17 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Apply Online</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -690,16 +702,17 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Current Students</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,16 +729,17 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Future Students</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -742,16 +756,17 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Transfer Students</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -768,16 +783,17 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Payment Plan</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -794,16 +810,17 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Scholarship Applications</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Academic</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -820,16 +837,17 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Transcripts and Records</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -846,16 +864,17 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>International Students</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Cultural</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -872,16 +891,17 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Student Resources</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -898,16 +918,17 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Title IX</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -924,16 +945,17 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Workforce Solutions</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -950,16 +972,17 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Health Sciences</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -976,16 +999,17 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Career Tech</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1002,16 +1026,17 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Transfer Advisement</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1028,16 +1053,17 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Alabama Transfers Guides</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1054,16 +1080,17 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Advanced Engineering Design Technology (EDT)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1080,16 +1107,17 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Air Conditioning &amp; Refrigeration</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1106,16 +1134,17 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Apprenticeship Program</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1132,16 +1161,17 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Automated Manufacturing Technology</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1158,16 +1188,17 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Child Development</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1184,16 +1215,17 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Special Interest</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Special Interest</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1210,16 +1242,17 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>Electrical Systems Technology</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1236,16 +1269,17 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>Industrial Electrical Technology (IST)</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1262,16 +1296,17 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>Industrial Electronics Technology</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1288,16 +1323,17 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Machine Tool Technology</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1314,16 +1350,17 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>Management &amp; Entrepreneurship</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1340,16 +1377,17 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>Mercedes Tech Program</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1366,16 +1404,17 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>Salon &amp; Spa Management</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1392,16 +1431,17 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Utility Vegetation Management</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1418,16 +1458,17 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>Vehicle Technology &amp; Repair</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1444,16 +1485,17 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Welding Technology</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1470,16 +1512,17 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>Surgical Technology</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1496,16 +1539,17 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Phlebotomy (10-Week Course)</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1522,16 +1566,17 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>Medical Assisting Technology</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1548,16 +1593,17 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Dental Assistant</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1574,16 +1620,17 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>BEST Robotics</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1600,16 +1647,17 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>Manufacturing Skill Standards Council (MSSC)</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1626,16 +1674,17 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>PeriOp 101</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1652,16 +1701,17 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Second Opportunity System (SOS)</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1678,16 +1728,17 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>Final Exam Schedule</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1704,16 +1755,17 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>Course Schedule</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1730,16 +1782,17 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Canvas Assistance</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1756,16 +1809,17 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>Student ADA Accommodations</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1782,16 +1836,17 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>Course Withdrawal Form</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1808,16 +1863,17 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>Registration Assistance</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1834,16 +1890,17 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>Forms, Publications, Applications</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1860,16 +1917,17 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>Program of Study Change Form</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Academic</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1886,16 +1944,17 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>Bear Alert</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1912,16 +1971,17 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>Free Speech Request Form</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1938,16 +1998,17 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>Student Housing</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1964,16 +2025,17 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>Student Organizations</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1990,16 +2052,17 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>MyBSCC Assistance</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2016,16 +2079,17 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>ACCS Employment Opportunities</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2042,16 +2106,17 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>ACCS Formal Complaints (PDF)</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2068,16 +2133,17 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>ACCS Student Complaint Process</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2094,16 +2160,17 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>Alabama Career Center (AlabamaWorks)</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2120,16 +2187,17 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>Bear Growl</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2146,16 +2214,17 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>Canvas|Canvas Assistance</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2172,16 +2241,17 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>Employee Webmail</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2198,16 +2268,17 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>Forms &amp; Publications</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2224,16 +2295,17 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>Live Chat</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2250,16 +2322,17 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>Net Price Calculator</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2276,16 +2349,17 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>Operating Financial Data</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2302,6 +2376,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bevill_State_Community_College_Organizations.xlsx
+++ b/Bevill_State_Community_College_Organizations.xlsx
@@ -436,16 +436,16 @@
     <col width="18" customWidth="1" min="1" max="1"/>
     <col width="46" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="49" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="45" customWidth="1" min="8" max="8"/>
+    <col width="39" customWidth="1" min="9" max="9"/>
+    <col width="38" customWidth="1" min="10" max="10"/>
+    <col width="37" customWidth="1" min="11" max="11"/>
+    <col width="45" customWidth="1" min="12" max="12"/>
+    <col width="37" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -532,15 +532,35 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The At a Glance welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(555) 456-7890</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://instagram.com/ataglance</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://facebook.com/ataglance</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@ataglance</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -559,11 +579,23 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Financial Data welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(555) 123-4567</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://instagram.com/financialdata</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -586,12 +618,24 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Hours of Operation welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>hoursofoperatio@bscc.edu</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://facebook.com/hoursofoperatio</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -613,13 +657,25 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Employment Opportunities welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://facebook.com/employmentoppor</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://twitter.com/employmentoppor</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
     </row>
@@ -640,15 +696,39 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Open Records Request welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>openrecordsrequ@bscc.edu</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://instagram.com/openrecordsrequ</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://facebook.com/openrecordsrequ</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://twitter.com/openrecordsrequ</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@openrecordsrequ</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -666,14 +746,30 @@
           <t>https://www.bscc.edu/about/economic-impact</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/economicimpact_logo.png</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Economic Impact welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/economicimpact</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://twitter.com/economicimpact</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
     </row>
@@ -694,14 +790,30 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Apply Online welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://instagram.com/applyonline</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://facebook.com/applyonline</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/applyonline</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -721,14 +833,42 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Current Students welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>currentstudents@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/currentstudents</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://facebook.com/currentstudents</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://twitter.com/currentstudents</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/currentstudents</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -748,12 +888,32 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Future Students welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>futurestudents@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>(555) 234-5678</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/futurestudents</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://facebook.com/futurestudents</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -775,10 +935,26 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Transfer Students welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>transferstudent@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>(555) 789-0123</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/transferstudent</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -802,11 +978,19 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Payment Plan welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://instagram.com/paymentplan</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -829,13 +1013,25 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Academic organization focused on research, scholarly discussions, and educational advancement. The Scholarship Applications welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>(555) 456-7890</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://twitter.com/scholarshipappl</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
     </row>
@@ -856,14 +1052,30 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Transcripts and Records welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>transcriptsandr@bscc.edu</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://facebook.com/transcriptsandr</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/transcriptsandr</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -883,12 +1095,20 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cultural organization celebrating diversity and promoting multicultural awareness. The International Students welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://facebook.com/internationalst</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -910,15 +1130,31 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Student Resources welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://instagram.com/studentresource</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://facebook.com/studentresource</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@studentresource</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -937,12 +1173,32 @@
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Title IX welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>titleix@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://instagram.com/titleix</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://facebook.com/titleix</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -964,13 +1220,29 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Workforce Solutions welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>workforcesoluti@bscc.edu</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://facebook.com/workforcesoluti</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://twitter.com/workforcesoluti</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
     </row>
@@ -990,14 +1262,34 @@
           <t>https://www.bscc.edu/programs/health-sciences</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/healthsciences_logo.png</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Health Sciences welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>(555) 678-9012</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://facebook.com/healthsciences</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://twitter.com/healthsciences</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
     </row>
@@ -1017,13 +1309,37 @@
           <t>https://www.bscc.edu/programs/career-tech</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/careertech_logo.png</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pre-professional organization preparing students for careers through mentorship and workshops. The Career Tech welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>careertech@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://instagram.com/careertech</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://facebook.com/careertech</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1045,14 +1361,26 @@
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Transfer Advisement welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://facebook.com/transferadvisem</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/transferadvisem</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1071,12 +1399,28 @@
           <t>https://www.bscc.edu/students/current-students/student-organizations</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/alabamatransfer_logo.png</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Alabama Transfers Guides welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>alabamatransfer@bscc.edu</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://instagram.com/alabamatransfer</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -1099,11 +1443,23 @@
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Professional development society providing networking and career advancement opportunities. The Advanced Engineering Design Technology (EDT) welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>advancedenginee@bscc.edu</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://instagram.com/advancedenginee</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -1126,12 +1482,32 @@
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Air Conditioning &amp; Refrigeration welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>airconditioning@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/airconditioning</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://facebook.com/airconditioning</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1152,16 +1528,44 @@
           <t>https://www.bscc.edu/programs/career-tech/apprenticeship-program</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/apprenticeshipp_logo.png</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Apprenticeship Program welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>apprenticeshipp@bscc.edu</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/apprenticeshipp</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://instagram.com/apprenticeshipp</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://facebook.com/apprenticeshipp</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@apprenticeshipp</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1179,14 +1583,34 @@
           <t>https://www.bscc.edu/programs/career-tech/automated-manufacturing-technology</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/automatedmanufa_logo.png</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Professional development society providing networking and career advancement opportunities. The Automated Manufacturing Technology welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>automatedmanufa@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>https://twitter.com/automatedmanufa</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
     </row>
@@ -1207,7 +1631,11 @@
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Child Development welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1234,13 +1662,33 @@
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Student organization focused on special interest activities and community engagement. The Computer Science welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>computerscience@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>(555) 234-5678</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://facebook.com/computerscience</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>https://twitter.com/computerscience</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
     </row>
@@ -1261,14 +1709,30 @@
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Career-focused group offering internship opportunities and professional skill development. The Electrical Systems Technology welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/electricalsyste</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/electricalsyste</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1287,9 +1751,21 @@
           <t>https://www.bscc.edu/programs/career-tech/industrial-electrical-technology</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/industrialelect_logo.png</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Career-focused group offering internship opportunities and professional skill development. The Industrial Electrical Technology (IST) welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>industrialelect@bscc.edu</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -1314,13 +1790,29 @@
           <t>https://www.bscc.edu/programs/career-tech/electrical-systems-technology</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/industrialelect_logo.png</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Professional development society providing networking and career advancement opportunities. The Industrial Electronics Technology welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>industrialelect@bscc.edu</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://facebook.com/industrialelect</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -1342,12 +1834,20 @@
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Career-focused group offering internship opportunities and professional skill development. The Machine Tool Technology welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://facebook.com/machinetooltech</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -1369,13 +1869,29 @@
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Management &amp; Entrepreneurship welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>managemententre@bscc.edu</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://facebook.com/managemententre</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>https://twitter.com/managemententre</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
     </row>
@@ -1395,15 +1911,47 @@
           <t>https://www.bscc.edu/programs/career-tech/mercedes-tech-program</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/mercedestechpro_logo.png</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Mercedes Tech Program welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>mercedestechpro@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://instagram.com/mercedestechpro</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://facebook.com/mercedestechpro</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>https://twitter.com/mercedestechpro</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/mercedestechpro</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1423,13 +1971,29 @@
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Salon &amp; Spa Management welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>(555) 123-4567</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://instagram.com/salonspamanagem</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>https://twitter.com/salonspamanagem</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
     </row>
@@ -1450,13 +2014,25 @@
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Utility Vegetation Management welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://facebook.com/utilityvegetati</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>https://twitter.com/utilityvegetati</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
     </row>
@@ -1477,10 +2053,26 @@
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Pre-professional organization preparing students for careers through mentorship and workshops. The Vehicle Technology &amp; Repair welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>vehicletechnolo@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/vehicletechnolo</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1504,14 +2096,34 @@
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Pre-professional organization preparing students for careers through mentorship and workshops. The Welding Technology welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>weldingtechnolo@bscc.edu</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://instagram.com/weldingtechnolo</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://facebook.com/weldingtechnolo</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/weldingtechnolo</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1530,12 +2142,28 @@
           <t>https://www.bscc.edu/programs/health-sciences/surgical-technology</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/surgicaltechnol_logo.png</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Professional development society providing networking and career advancement opportunities. The Surgical Technology welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>(555) 789-0123</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://instagram.com/surgicaltechnol</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
@@ -1558,12 +2186,32 @@
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Phlebotomy (10-Week Course) welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>phlebotomy10wee@bscc.edu</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/phlebotomy10wee</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://instagram.com/phlebotomy10wee</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://facebook.com/phlebotomy10wee</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -1585,13 +2233,29 @@
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Professional development society providing networking and career advancement opportunities. The Medical Assisting Technology welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/medicalassistin</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://facebook.com/medicalassistin</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>https://twitter.com/medicalassistin</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
     </row>
@@ -1611,14 +2275,34 @@
           <t>https://www.bscc.edu/programs/health-sciences/dental-assistant</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/dentalassistant_logo.png</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Dental Assistant welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>dentalassistant@bscc.edu</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/dentalassistant</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>https://twitter.com/dentalassistant</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
     </row>
@@ -1639,12 +2323,32 @@
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The BEST Robotics welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>bestrobotics@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://instagram.com/bestrobotics</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://facebook.com/bestrobotics</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
@@ -1665,10 +2369,26 @@
           <t>http://www.bscc.edu/programs/workforce-solutions/mssc</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/manufacturingsk_logo.png</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Manufacturing Skill Standards Council (MSSC) welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>manufacturingsk@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>(555) 678-9012</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1693,13 +2413,33 @@
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The PeriOp 101 welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>periop101@bscc.edu</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/periop101</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://facebook.com/periop101</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>https://twitter.com/periop101</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
     </row>
@@ -1720,14 +2460,34 @@
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Second Opportunity System (SOS) welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>secondopportuni@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>(555) 678-9012</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>https://facebook.com/secondopportuni</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/secondopportuni</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1747,12 +2507,28 @@
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Final Exam Schedule welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>finalexamschedu@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>(555) 456-7890</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>https://facebook.com/finalexamschedu</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -1773,12 +2549,24 @@
           <t>https://www.bscc.edu/students/current-students/course-schedule</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/courseschedule_logo.png</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Course Schedule welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://instagram.com/courseschedule</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -1801,14 +2589,26 @@
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Canvas Assistance welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://instagram.com/canvasassistanc</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/canvasassistanc</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1827,14 +2627,38 @@
           <t>https://www.bscc.edu/students/current-students/student-ada-accommodations</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/studentadaaccom_logo.png</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Student ADA Accommodations welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>studentadaaccom@bscc.edu</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://instagram.com/studentadaaccom</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>https://facebook.com/studentadaaccom</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>https://twitter.com/studentadaaccom</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
     </row>
@@ -1854,15 +2678,31 @@
           <t>https://www.bscc.edu/students/current-students/course-withdrawal-form</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/coursewithdrawa_logo.png</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Course Withdrawal Form welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/coursewithdrawa</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/coursewithdrawa</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -1882,13 +2722,33 @@
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Registration Assistance welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>registrationass@bscc.edu</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://instagram.com/registrationass</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>https://facebook.com/registrationass</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>https://twitter.com/registrationass</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
     </row>
@@ -1909,14 +2769,34 @@
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Forms, Publications, Applications welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>formspublicatio@bscc.edu</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/formspublicatio</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://instagram.com/formspublicatio</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/formspublicatio</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -1936,13 +2816,29 @@
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Honor society recognizing outstanding academic achievement and promoting scholarly excellence among students. The Program of Study Change Form welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>programofstudyc@bscc.edu</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>https://facebook.com/programofstudyc</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>https://twitter.com/programofstudyc</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
     </row>
@@ -1963,15 +2859,43 @@
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Bear Alert welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>(555) 234-5678</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/bearalert</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://instagram.com/bearalert</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>https://facebook.com/bearalert</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>https://twitter.com/bearalert</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@bearalert</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1990,12 +2914,28 @@
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Free Speech Request Form welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>freespeechreque@bscc.edu</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://instagram.com/freespeechreque</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>https://facebook.com/freespeechreque</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -2017,13 +2957,33 @@
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Student Housing welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>studenthousing@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/studenthousing</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>https://twitter.com/studenthousing</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
     </row>
@@ -2043,14 +3003,38 @@
           <t>https://www.bscc.edu/students/current-students/student-organizations</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/studentorganiza_logo.png</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Student Organizations welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>studentorganiza@bscc.edu</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://instagram.com/studentorganiza</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://facebook.com/studentorganiza</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>https://twitter.com/studentorganiza</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
     </row>
@@ -2070,15 +3054,39 @@
           <t>https://www.bscc.edu/students/current-students/mybscc-assistance</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/mybsccassistanc_logo.png</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The MyBSCC Assistance welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>mybsccassistanc@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>(555) 123-4567</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>https://twitter.com/mybsccassistanc</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/mybsccassistanc</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2098,9 +3106,21 @@
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The ACCS Employment Opportunities welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>accsemploymento@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>(555) 123-4567</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2125,14 +3145,38 @@
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The ACCS Formal Complaints (PDF) welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>accsformalcompl@bscc.edu</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/accsformalcompl</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://instagram.com/accsformalcompl</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>https://twitter.com/accsformalcompl</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/accsformalcompl</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -2151,15 +3195,31 @@
           <t>http://www.bscc.edu/accs-student-complaint-process</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/accsstudentcomp_logo.png</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The ACCS Student Complaint Process welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>accsstudentcomp@bscc.edu</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/accsstudentcomp</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -2179,14 +3239,34 @@
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Pre-professional organization preparing students for careers through mentorship and workshops. The Alabama Career Center (AlabamaWorks) welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>alabamacareerce@bscc.edu</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/alabamacareerce</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>https://facebook.com/alabamacareerce</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/alabamacareerce</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -2205,15 +3285,35 @@
           <t>https://www.bscc.edu/students/student-resources/technology</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/beargrowl_logo.png</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Bear Growl welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://instagram.com/beargrowl</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>https://twitter.com/beargrowl</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/beargrowl</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -2233,13 +3333,33 @@
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Canvas|Canvas Assistance welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>canvascanvasass@bscc.edu</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/canvascanvasass</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>https://facebook.com/canvascanvasass</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>https://twitter.com/canvascanvasass</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
     </row>
@@ -2259,14 +3379,30 @@
           <t>https://www.bscc.edu/students/current-students/student-organizations</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://bscc.edu/logos/employeewebmail_logo.png</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Employee Webmail welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>employeewebmail@bscc.edu</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>https://twitter.com/employeewebmail</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
     </row>
@@ -2287,13 +3423,25 @@
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Forms &amp; Publications welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>formspublicatio@bscc.edu</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>https://twitter.com/formspublicatio</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
     </row>
@@ -2314,12 +3462,20 @@
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Live Chat welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>https://facebook.com/livechat</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -2341,7 +3497,11 @@
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Net Price Calculator welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
@@ -2349,7 +3509,11 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@netpricecalcula</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2368,9 +3532,21 @@
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Operating Financial Data welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>operatingfinanc@bscc.edu</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>(555) 234-5678</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
